--- a/changes v3.xlsx
+++ b/changes v3.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>1. Shows error if veh is added while leaving running or duration empty. And does not show up in alerts as well.</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t xml:space="preserve">Sami </t>
+  </si>
+  <si>
+    <t>sami</t>
   </si>
 </sst>
 </file>
@@ -387,7 +390,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -465,6 +468,9 @@
       <c r="A7" t="s">
         <v>5</v>
       </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
